--- a/DokkanKits/166.xlsx
+++ b/DokkanKits/166.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30820384-4FF8-4B3F-9C01-C21839FD328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4DD7BC-DB7A-4CA2-A17F-5C6CE9CF3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3893" yWindow="803" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Link 1</t>
   </si>
   <si>
-    <t>Golden Warrior</t>
-  </si>
-  <si>
     <t>Link 2</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>Link 4</t>
   </si>
   <si>
-    <t>Kamehameha</t>
-  </si>
-  <si>
     <t>Link 5</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Link 7</t>
   </si>
   <si>
-    <t>Legendary Power</t>
-  </si>
-  <si>
     <t>Passive Ki</t>
   </si>
   <si>
@@ -293,18 +284,6 @@
     <t>Dmg Red Normal</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Immense</t>
-  </si>
-  <si>
     <t>Active Skill Turn</t>
   </si>
   <si>
@@ -320,7 +299,25 @@
     <t>Revival Skill Turn</t>
   </si>
   <si>
-    <t>Mega-Colossal</t>
+    <t>HeroesTUR</t>
+  </si>
+  <si>
+    <t>Super Saiyan SS Vegeta (Berserk Controlled)</t>
+  </si>
+  <si>
+    <t>TEQ</t>
+  </si>
+  <si>
+    <t>Supreme</t>
+  </si>
+  <si>
+    <t>Prodigies</t>
+  </si>
+  <si>
+    <t>Royal Lineage</t>
+  </si>
+  <si>
+    <t>Saiyan Pride</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,7 +1189,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1252,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1260,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1276,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1292,7 +1289,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>44927</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1300,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>44927</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1308,7 +1305,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>8017</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1319,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1335,7 +1332,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1343,7 +1340,8 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1354,7 +1352,8 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>1.5</v>
+        <f>1.4</f>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -1365,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1378,9 +1377,6 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
       <c r="M16">
         <v>0</v>
       </c>
@@ -1403,7 +1399,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1411,7 +1407,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1419,7 +1415,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1427,7 +1423,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1441,7 +1437,8 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>1.8+1+1.2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -1452,7 +1449,8 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>1.8+1</f>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -1460,10 +1458,23 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f>(0+0.4*0.25)/(1+0.25)</f>
+        <v>0.08</v>
+      </c>
+      <c r="D25">
+        <f>1.25*0.4+(0+0.4*0.25)/(1+0.25)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E25">
+        <f>2*1.25*0.4+(0+0.4*0.25)/(1+0.25)</f>
+        <v>1.08</v>
+      </c>
+      <c r="F25">
+        <f>1.2</f>
+        <v>1.2</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1474,10 +1485,22 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
+      </c>
+      <c r="D26">
+        <f>C27</f>
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>1.2</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -1485,9 +1508,22 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27">
+        <f>1.25*0.4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <f>1.25*0.4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M27">
@@ -1555,7 +1591,8 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
@@ -1566,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
@@ -1618,7 +1655,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1632,12 +1669,12 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1645,18 +1682,18 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1664,18 +1701,18 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>49</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1683,18 +1720,18 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1702,18 +1739,18 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1721,18 +1758,18 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1740,24 +1777,25 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -1765,7 +1803,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1781,7 +1819,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1792,7 +1830,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1809,7 +1847,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1826,7 +1864,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1840,7 +1878,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1851,7 +1889,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1862,7 +1900,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1876,7 +1914,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1887,7 +1925,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1898,7 +1936,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1912,41 +1950,42 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <f>0.3+0.2+0.5</f>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -1954,7 +1993,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>1</v>
